--- a/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792546BC-86B0-4349-9C4D-8750FAB18D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE8D854-793C-4389-B7BD-FE475FEA2DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="19">
-        <v>45918</v>
+        <v>45933</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>68</v>
@@ -2375,26 +2375,26 @@
         <v>70</v>
       </c>
       <c r="G7" s="20">
-        <v>517917296</v>
+        <v>517967448</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>74</v>
       </c>
       <c r="I7" s="21">
-        <f>1329003-54050.85</f>
-        <v>1274952.1499999999</v>
+        <f>1324098-53803.62</f>
+        <v>1270294.3799999999</v>
       </c>
       <c r="K7" s="21">
         <f>M7*12</f>
-        <v>136602.01607142854</v>
+        <v>136102.96928571427</v>
       </c>
       <c r="L7" s="27">
         <f>I7-K7</f>
-        <v>1138350.1339285714</v>
+        <v>1134191.4107142857</v>
       </c>
       <c r="M7" s="33">
         <f>I7/112</f>
-        <v>11383.501339285713</v>
+        <v>11341.914107142857</v>
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
@@ -3127,19 +3127,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>1274952.1499999999</v>
+        <v>1270294.3799999999</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>136602.01607142854</v>
+        <v>136102.96928571427</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>1138350.1339285714</v>
+        <v>1134191.4107142857</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>11383.501339285713</v>
+        <v>11341.914107142857</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE8D854-793C-4389-B7BD-FE475FEA2DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F1F75B-3FF9-4F2D-8D1C-CAF79D4536C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2408,7 +2408,9 @@
         <f>B7+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19">
+        <v>45934</v>
+      </c>
       <c r="D8" s="20" t="s">
         <v>68</v>
       </c>
@@ -2416,22 +2418,27 @@
       <c r="F8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="20">
+        <v>517970454</v>
+      </c>
       <c r="H8" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K8" s="21">
         <f>M8*12</f>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L8" s="27">
         <f>I8-K8</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M8" s="33">
         <f t="shared" ref="M8:M26" si="0">I8/112</f>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -3127,19 +3134,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>1270294.3799999999</v>
+        <v>2567171.34</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>136102.96928571427</v>
+        <v>275054.07214285713</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>1134191.4107142857</v>
+        <v>2292117.2678571427</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>11341.914107142857</v>
+        <v>22921.172678571427</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F1F75B-3FF9-4F2D-8D1C-CAF79D4536C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A505E2-072C-46B7-928E-8D38CB355C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="76">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -258,21 +258,6 @@
   </si>
   <si>
     <t>166-562-025-0000</t>
-  </si>
-  <si>
-    <t>CARL'S VULCANIZING SHOP</t>
-  </si>
-  <si>
-    <t>MINDA S. BALBUENA</t>
-  </si>
-  <si>
-    <t>POBLACION, SINDANGAN, ZAMBOANGA DEL NORTE</t>
-  </si>
-  <si>
-    <t>001457</t>
-  </si>
-  <si>
-    <t>139-892-671-00000</t>
   </si>
   <si>
     <t>OCTOBER 2025</t>
@@ -2229,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,7 +2268,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2450,7 +2435,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="19">
+        <v>45937</v>
+      </c>
       <c r="D9" s="20" t="s">
         <v>68</v>
       </c>
@@ -2458,22 +2445,27 @@
       <c r="F9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="20">
+        <v>517976202</v>
+      </c>
       <c r="H9" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K9" s="21">
         <f t="shared" ref="K9:K26" si="2">M9*12</f>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L9" s="27">
         <f t="shared" ref="L9:L26" si="3">I9-K9</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M9" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -3134,19 +3126,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>2567171.34</v>
+        <v>3864048.3</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>275054.07214285713</v>
+        <v>414005.17499999999</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>2292117.2678571427</v>
+        <v>3450043.125</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>22921.172678571427</v>
+        <v>34500.431249999994</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3185,7 +3177,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -3263,38 +3255,24 @@
       <c r="A40">
         <v>2</v>
       </c>
-      <c r="C40" s="19">
-        <v>46000</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="21">
-        <v>200</v>
-      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="21"/>
       <c r="K40" s="21">
         <f t="shared" ref="K40:K59" si="7">M40*12</f>
-        <v>21.428571428571431</v>
+        <v>0</v>
       </c>
       <c r="L40" s="27">
         <f>I40-K40</f>
-        <v>178.57142857142856</v>
+        <v>0</v>
       </c>
       <c r="M40" s="33">
         <f t="shared" ref="M40:M59" si="8">I40/112</f>
-        <v>1.7857142857142858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -3792,19 +3770,19 @@
     <row r="65" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I65" s="14">
         <f>SUM(I40:I64)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K65" s="14">
         <f>SUM(K40:K64)</f>
-        <v>21.428571428571431</v>
+        <v>0</v>
       </c>
       <c r="L65" s="14">
         <f>SUM(L40:L64)</f>
-        <v>178.57142857142856</v>
+        <v>0</v>
       </c>
       <c r="M65" s="36">
         <f>SUM(M40:M64)</f>
-        <v>1.7857142857142858</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A505E2-072C-46B7-928E-8D38CB355C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12513691-A937-4397-9857-74A304ADBB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2477,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19">
+        <v>45939</v>
+      </c>
       <c r="D10" s="20" t="s">
         <v>68</v>
       </c>
@@ -2485,22 +2487,27 @@
       <c r="F10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="20">
+        <v>517983074</v>
+      </c>
       <c r="H10" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K10" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L10" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M10" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3126,19 +3133,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>3864048.3</v>
+        <v>5160925.26</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>414005.17499999999</v>
+        <v>552956.27785714285</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>3450043.125</v>
+        <v>4607968.9821428573</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>34500.431249999994</v>
+        <v>46079.689821428561</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12513691-A937-4397-9857-74A304ADBB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDF2BD2-4DBC-4434-B6D6-129A6DB55B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,7 +2519,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19">
+        <v>45945</v>
+      </c>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
@@ -2527,22 +2529,27 @@
       <c r="F11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20">
+        <v>518000493</v>
+      </c>
       <c r="H11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="21">
+        <f>1327212-56255.04</f>
+        <v>1270956.96</v>
+      </c>
       <c r="K11" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>136173.96</v>
       </c>
       <c r="L11" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1134783</v>
       </c>
       <c r="M11" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11347.83</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3133,19 +3140,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>5160925.26</v>
+        <v>6431882.2199999997</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>552956.27785714285</v>
+        <v>689130.23785714281</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>4607968.9821428573</v>
+        <v>5742751.9821428573</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>46079.689821428561</v>
+        <v>57427.519821428563</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDF2BD2-4DBC-4434-B6D6-129A6DB55B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C801DF7C-4A4E-4B49-ADD7-BE900B5A9ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,7 +2561,9 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19">
+        <v>45946</v>
+      </c>
       <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
@@ -2569,22 +2571,27 @@
       <c r="F12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20">
+        <v>518004322</v>
+      </c>
       <c r="H12" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K12" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L12" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M12" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3140,19 +3147,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>6431882.2199999997</v>
+        <v>7728759.1799999997</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>689130.23785714281</v>
+        <v>828081.34071428562</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>5742751.9821428573</v>
+        <v>6900677.8392857146</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>57427.519821428563</v>
+        <v>69006.77839285713</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C801DF7C-4A4E-4B49-ADD7-BE900B5A9ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F21739E-A7D5-4425-9079-E50421323BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE" sheetId="4" r:id="rId1"/>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,7 +2603,9 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="19">
+        <v>45947</v>
+      </c>
       <c r="D13" s="20" t="s">
         <v>68</v>
       </c>
@@ -2611,22 +2613,27 @@
       <c r="F13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="20">
+        <v>518008427</v>
+      </c>
       <c r="H13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21">
+        <f>1275082-213296.5</f>
+        <v>1061785.5</v>
+      </c>
       <c r="K13" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>113762.73214285716</v>
       </c>
       <c r="L13" s="27">
         <f>I13-K13</f>
-        <v>0</v>
+        <v>948022.76785714284</v>
       </c>
       <c r="M13" s="33">
         <f>I13/112</f>
-        <v>0</v>
+        <v>9480.2276785714294</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3147,19 +3154,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>7728759.1799999997</v>
+        <v>8790544.6799999997</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>828081.34071428562</v>
+        <v>941844.07285714278</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>6900677.8392857146</v>
+        <v>7848700.6071428573</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>69006.77839285713</v>
+        <v>78487.006071428565</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F21739E-A7D5-4425-9079-E50421323BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66D480E-78DE-499E-A8CA-305EA5C6A1BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,7 +2645,9 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="19">
+        <v>45948</v>
+      </c>
       <c r="D14" s="20" t="s">
         <v>68</v>
       </c>
@@ -2653,22 +2655,27 @@
       <c r="F14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20">
+        <v>518012210</v>
+      </c>
       <c r="H14" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="38"/>
+      <c r="I14" s="38">
+        <f>1383682-57013.2</f>
+        <v>1326668.8</v>
+      </c>
       <c r="K14" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>142143.08571428573</v>
       </c>
       <c r="L14" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1184525.7142857143</v>
       </c>
       <c r="M14" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11845.257142857143</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3154,19 +3161,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>8790544.6799999997</v>
+        <v>10117213.48</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>941844.07285714278</v>
+        <v>1083987.1585714286</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>7848700.6071428573</v>
+        <v>9033226.3214285709</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>78487.006071428565</v>
+        <v>90332.263214285704</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66D480E-78DE-499E-A8CA-305EA5C6A1BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362028B7-FAFC-4DD2-8756-9F93AFDAAB6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE" sheetId="4" r:id="rId1"/>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,7 +2687,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="19">
+        <v>45950</v>
+      </c>
       <c r="D15" s="20" t="s">
         <v>68</v>
       </c>
@@ -2695,22 +2697,27 @@
       <c r="F15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="20">
+        <v>518014849</v>
+      </c>
       <c r="H15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K15" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L15" s="27">
         <f>I15-K15</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M15" s="33">
         <f>I15/112</f>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -3161,19 +3168,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>10117213.48</v>
+        <v>11414090.440000001</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1083987.1585714286</v>
+        <v>1222938.2614285715</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>9033226.3214285709</v>
+        <v>10191152.178571427</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>90332.263214285704</v>
+        <v>101911.52178571427</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362028B7-FAFC-4DD2-8756-9F93AFDAAB6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176D2176-77D2-4EAB-89B3-86993448C59D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE" sheetId="4" r:id="rId1"/>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,7 +2729,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="19">
+        <v>45952</v>
+      </c>
       <c r="D16" s="20" t="s">
         <v>68</v>
       </c>
@@ -2737,22 +2739,27 @@
       <c r="F16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <v>518023646</v>
+      </c>
       <c r="H16" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="21">
+        <f>1315548-54091.84</f>
+        <v>1261456.1599999999</v>
+      </c>
       <c r="K16" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>135156.01714285713</v>
       </c>
       <c r="L16" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1126300.1428571427</v>
       </c>
       <c r="M16" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11263.001428571428</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3168,19 +3175,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>11414090.440000001</v>
+        <v>12675546.600000001</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1222938.2614285715</v>
+        <v>1358094.2785714287</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>10191152.178571427</v>
+        <v>11317452.321428571</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>101911.52178571427</v>
+        <v>113174.5232142857</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176D2176-77D2-4EAB-89B3-86993448C59D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E35D582-5DAE-4B4D-8095-334B0649B01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E35D582-5DAE-4B4D-8095-334B0649B01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEE5236-8564-41BB-A5B0-98450501C3D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,7 +2771,9 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="19">
+        <v>45955</v>
+      </c>
       <c r="D17" s="20" t="s">
         <v>68</v>
       </c>
@@ -2779,22 +2781,28 @@
       <c r="F17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <f>518036488</f>
+        <v>518036488</v>
+      </c>
       <c r="H17" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="21">
+        <f>1353667-56750.76</f>
+        <v>1296916.24</v>
+      </c>
       <c r="K17" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138955.31142857141</v>
       </c>
       <c r="L17" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157960.9285714286</v>
       </c>
       <c r="M17" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.609285714285</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3175,19 +3183,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>12675546.600000001</v>
+        <v>13972462.840000002</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1358094.2785714287</v>
+        <v>1497049.59</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>11317452.321428571</v>
+        <v>12475413.25</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>113174.5232142857</v>
+        <v>124754.13249999998</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEE5236-8564-41BB-A5B0-98450501C3D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BDE301-3EDD-434E-A92F-383C71954B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE" sheetId="4" r:id="rId1"/>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2814,7 +2814,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="19">
+        <v>45960</v>
+      </c>
       <c r="D18" s="20" t="s">
         <v>68</v>
       </c>
@@ -2822,22 +2824,27 @@
       <c r="F18" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20">
+        <v>518055565</v>
+      </c>
       <c r="H18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="21">
+        <f>1284569-54342.4</f>
+        <v>1230226.6000000001</v>
+      </c>
       <c r="K18" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>131809.99285714288</v>
       </c>
       <c r="L18" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1098416.6071428573</v>
       </c>
       <c r="M18" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10984.166071428572</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3183,19 +3190,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>13972462.840000002</v>
+        <v>15202689.440000001</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1497049.59</v>
+        <v>1628859.5828571429</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>12475413.25</v>
+        <v>13573829.857142858</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>124754.13249999998</v>
+        <v>135738.29857142855</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/PURCHASES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BDE301-3EDD-434E-A92F-383C71954B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51C9921-0CE9-4CCE-A690-5558F707B8BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2856,7 +2856,9 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="19">
+        <v>45961</v>
+      </c>
       <c r="D19" s="20" t="s">
         <v>68</v>
       </c>
@@ -2864,22 +2866,27 @@
       <c r="F19" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20">
+        <v>518062443</v>
+      </c>
       <c r="H19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="21"/>
+      <c r="I19" s="21">
+        <f>326410-12465.8</f>
+        <v>313944.2</v>
+      </c>
       <c r="K19" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>33636.878571428577</v>
       </c>
       <c r="L19" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>280307.32142857142</v>
       </c>
       <c r="M19" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2803.0732142857146</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2891,7 +2898,9 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="19">
+        <v>45961</v>
+      </c>
       <c r="D20" s="20" t="s">
         <v>68</v>
       </c>
@@ -2899,22 +2908,27 @@
       <c r="F20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="20">
+        <v>518062417</v>
+      </c>
       <c r="H20" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="21"/>
+      <c r="I20" s="21">
+        <f>294720-31077.6</f>
+        <v>263642.40000000002</v>
+      </c>
       <c r="K20" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28247.4</v>
       </c>
       <c r="L20" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>235395.00000000003</v>
       </c>
       <c r="M20" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2353.9500000000003</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2926,7 +2940,9 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="19">
+        <v>45961</v>
+      </c>
       <c r="D21" s="20" t="s">
         <v>68</v>
       </c>
@@ -2934,22 +2950,27 @@
       <c r="F21" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="20">
+        <v>518061959</v>
+      </c>
       <c r="H21" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="21"/>
+      <c r="I21" s="21">
+        <f>1193940-49636.8</f>
+        <v>1144303.2</v>
+      </c>
       <c r="K21" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>122603.91428571429</v>
       </c>
       <c r="L21" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1021699.2857142857</v>
       </c>
       <c r="M21" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10216.992857142857</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3190,19 +3211,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>15202689.440000001</v>
+        <v>16924579.240000002</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1628859.5828571429</v>
+        <v>1813347.7757142857</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>13573829.857142858</v>
+        <v>15111231.464285715</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>135738.29857142855</v>
+        <v>151112.31464285712</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
